--- a/three snails/woniuboss2.5_UI/testdata/woniuboss_test_cases.xlsx
+++ b/three snails/woniuboss2.5_UI/testdata/woniuboss_test_cases.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="123">
   <si>
     <t>用例编号</t>
   </si>
@@ -1554,6 +1554,52 @@
   </si>
   <si>
     <t>mock_success</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>input_password_001</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入正确的密码</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>password=woniu123</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>input_password_002</t>
+  </si>
+  <si>
+    <t>input_password_003</t>
+  </si>
+  <si>
+    <t>输入错误的密码</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>password=123</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>decrypt-fail</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>不输入密码</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>password=</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>no-decrypt</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>decrypt-success</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2153,8 +2199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2217,6 +2263,48 @@
       </c>
       <c r="E5" s="10" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="D7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D8" t="s">
+        <v>117</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -2487,7 +2575,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
